--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270825.6711901271</v>
+        <v>274518.3610118068</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091065</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6496621.9693965</v>
+        <v>6496621.969396499</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13.47021413996765</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15.82058500186236</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810342</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -817,10 +819,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507633</v>
       </c>
       <c r="D4" t="n">
-        <v>153.0251390105128</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -899,22 +901,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>386.8650699901663</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23.53807932902379</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385435</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -990,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1066,10 +1068,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>105.0821891886859</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>4.151417595729786</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>70.19621519814257</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>148.7760004850607</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588044</v>
       </c>
       <c r="H12" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>40.39502321397676</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.0721989747363</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
         <v>157.7484451748619</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>132.3751831670815</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>294.7228925766556</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.25266495181711</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>193.2637698841042</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>155.9251219450843</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>76.83636457553152</v>
       </c>
       <c r="D23" t="n">
-        <v>388.3430365919149</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>134.663382752343</v>
       </c>
       <c r="G25" t="n">
-        <v>11.86626593013732</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>200.7254924760929</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2609,19 +2611,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>81.39240572145881</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>26.57296805995025</v>
       </c>
       <c r="G28" t="n">
-        <v>125.6915964501111</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2792,10 +2794,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>100.0791888769552</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>151.7506045714087</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.8913450714439</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>91.04473440253273</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>110.744572322372</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>64.95210538030037</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>112.518308671601</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>294.7228925766556</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3436,13 +3438,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>171.0167090375355</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128979</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>383.5604440308334</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>70.01651234184534</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>113.6277268646017</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>192.154971918042</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>340.8361638445465</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3830,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
         <v>105.9202115588047</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.6942298771791</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>372.2698922909595</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0270336877293</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4074,7 +4076,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>54.68688746169101</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>55.69551283691923</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.674210597145</v>
+        <v>1277.096428763702</v>
       </c>
       <c r="C2" t="n">
-        <v>876.5496199104149</v>
+        <v>866.9718380769724</v>
       </c>
       <c r="D2" t="n">
-        <v>472.0856900034754</v>
+        <v>866.9718380769724</v>
       </c>
       <c r="E2" t="n">
-        <v>57.74547452037211</v>
+        <v>452.6316225938691</v>
       </c>
       <c r="F2" t="n">
-        <v>57.74547452037211</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G2" t="n">
-        <v>57.74547452037211</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4370,10 +4372,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.674210597145</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>1192.007362767164</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4440,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.429305553252</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C4" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4519,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.1290119472964</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>867.265113297835</v>
       </c>
       <c r="D5" t="n">
-        <v>877.1357131590178</v>
+        <v>462.8011833908955</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>462.8011833908955</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>462.8011833908955</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
         <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
         <v>2047.697635790537</v>
@@ -4607,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649054</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4650,13 +4652,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="M6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="N6" t="n">
         <v>1207.227134123859</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1724.070068790184</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1724.070068790184</v>
       </c>
       <c r="O6" t="n">
         <v>1724.070068790184</v>
@@ -4677,19 +4679,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.3847151048558</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>749.2913426665723</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>589.7966979894823</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>428.8858828578017</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>264.254756968393</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4765,10 +4767,10 @@
         <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>1332.820120110135</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>1108.0844214989</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1687.317608428192</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C8" t="n">
-        <v>1687.317608428192</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D8" t="n">
-        <v>1683.124257321394</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.784041838291</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L8" t="n">
-        <v>176.0078249962696</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M8" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4838,16 +4840,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1420.972610075123</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C11" t="n">
-        <v>1010.848019388393</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D11" t="n">
-        <v>606.3840894814535</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E11" t="n">
-        <v>192.0438739983503</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>192.0438739983503</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
-        <v>192.0438739983503</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L11" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M11" t="n">
-        <v>1846.479361096332</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N11" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O11" t="n">
         <v>2047.697635790537</v>
@@ -5072,19 +5074,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5151,19 +5153,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5239,10 +5241,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>740.1083749522213</v>
+        <v>492.6927300678236</v>
       </c>
       <c r="C14" t="n">
-        <v>740.1083749522213</v>
+        <v>82.56813938109372</v>
       </c>
       <c r="D14" t="n">
-        <v>740.1083749522213</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E14" t="n">
-        <v>740.1083749522213</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F14" t="n">
-        <v>740.1083749522213</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G14" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O14" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>740.1083749522213</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X14" t="n">
-        <v>740.1083749522213</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y14" t="n">
-        <v>740.1083749522213</v>
+        <v>902.9139097323131</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>1207.227134123859</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.227134123859</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N15" t="n">
-        <v>1207.227134123859</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O15" t="n">
-        <v>1207.227134123859</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P15" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5388,7 +5390,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V15" t="n">
         <v>1409.860069912671</v>
@@ -5400,7 +5402,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1420.972610075123</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C17" t="n">
-        <v>1010.848019388393</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D17" t="n">
-        <v>1010.848019388393</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E17" t="n">
-        <v>596.5078039052897</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F17" t="n">
-        <v>175.4773918589773</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L17" t="n">
         <v>1014.011766457887</v>
@@ -5540,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U17" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>1831.193789739612</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W17" t="n">
-        <v>1831.193789739612</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X17" t="n">
-        <v>1831.193789739612</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y17" t="n">
-        <v>1831.193789739612</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L18" t="n">
-        <v>537.7254774811266</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147452</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>789.7443911248628</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>618.6510186865793</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5701,22 +5703,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>789.7443911248628</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1447.433488874781</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="C20" t="n">
-        <v>1252.217559698918</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="D20" t="n">
-        <v>847.7536297919787</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E20" t="n">
-        <v>847.7536297919787</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F20" t="n">
-        <v>847.7536297919787</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G20" t="n">
         <v>439.0253456848109</v>
@@ -5750,52 +5752,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1831.193789739612</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V20" t="n">
-        <v>1831.193789739612</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W20" t="n">
-        <v>1447.433488874781</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X20" t="n">
-        <v>1447.433488874781</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y20" t="n">
-        <v>1447.433488874781</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960205</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959273</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
         <v>2088.254281480102</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5938,22 +5940,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.830049169152</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.129690793372</v>
+        <v>1252.217559698918</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
         <v>41.76508562960205</v>
@@ -5993,16 +5995,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M23" t="n">
-        <v>497.1688317915616</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N23" t="n">
-        <v>1014.011766457887</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O23" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P23" t="n">
         <v>2047.697635790537</v>
@@ -6014,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6077,16 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.1101737307487</v>
+        <v>1299.17626840397</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1101737307487</v>
+        <v>1128.082895965686</v>
       </c>
       <c r="D25" t="n">
-        <v>480.6155290536587</v>
+        <v>1128.082895965686</v>
       </c>
       <c r="E25" t="n">
-        <v>319.7047139219782</v>
+        <v>1128.082895965686</v>
       </c>
       <c r="F25" t="n">
-        <v>319.7047139219782</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198193</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L25" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M25" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O25" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P25" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T25" t="n">
-        <v>1331.615243227154</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="U25" t="n">
-        <v>1331.615243227154</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="V25" t="n">
-        <v>1331.615243227154</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="W25" t="n">
-        <v>1052.545578736028</v>
+        <v>1537.520130544286</v>
       </c>
       <c r="X25" t="n">
-        <v>1052.545578736028</v>
+        <v>1299.17626840397</v>
       </c>
       <c r="Y25" t="n">
-        <v>827.809880124793</v>
+        <v>1299.17626840397</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330.8698710156531</v>
+        <v>1373.612066528674</v>
       </c>
       <c r="C26" t="n">
-        <v>330.8698710156531</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D26" t="n">
-        <v>330.8698710156531</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E26" t="n">
-        <v>330.8698710156531</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F26" t="n">
-        <v>330.8698710156531</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G26" t="n">
-        <v>330.8698710156531</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H26" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O26" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6257,19 +6259,19 @@
         <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>1866.047797426961</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="V26" t="n">
-        <v>1516.210242763442</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="W26" t="n">
-        <v>1132.44994189861</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="X26" t="n">
-        <v>731.806544067563</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.8698710156531</v>
+        <v>1783.833246193164</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>605.7731676935686</v>
+        <v>406.9502310210797</v>
       </c>
       <c r="C28" t="n">
-        <v>434.6797952552851</v>
+        <v>235.8568585827962</v>
       </c>
       <c r="D28" t="n">
-        <v>434.6797952552851</v>
+        <v>235.8568585827962</v>
       </c>
       <c r="E28" t="n">
-        <v>434.6797952552851</v>
+        <v>235.8568585827962</v>
       </c>
       <c r="F28" t="n">
-        <v>434.6797952552851</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6412,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.278237189974</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.208572698848</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.208572698848</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.4728740876129</v>
+        <v>594.6499374151241</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1167.262103595554</v>
+        <v>142.8551754043043</v>
       </c>
       <c r="C29" t="n">
-        <v>757.1375129088235</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>1577.483283260043</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>1577.483283260043</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W29" t="n">
-        <v>1577.483283260043</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X29" t="n">
-        <v>1577.483283260043</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y29" t="n">
-        <v>1577.483283260043</v>
+        <v>553.0763550687938</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N30" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.8950437660649</v>
+        <v>1073.455858920572</v>
       </c>
       <c r="C31" t="n">
-        <v>526.8016713277814</v>
+        <v>902.3624864822882</v>
       </c>
       <c r="D31" t="n">
-        <v>367.3070266506913</v>
+        <v>742.8678418051982</v>
       </c>
       <c r="E31" t="n">
-        <v>206.3962115190108</v>
+        <v>581.9570266735177</v>
       </c>
       <c r="F31" t="n">
-        <v>41.76508562960205</v>
+        <v>417.325900784109</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960205</v>
+        <v>250.0755097096524</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6643,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T31" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.974066676486</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V31" t="n">
-        <v>828.0883216160082</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W31" t="n">
-        <v>828.0883216160082</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X31" t="n">
-        <v>828.0883216160082</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y31" t="n">
-        <v>828.0883216160082</v>
+        <v>1261.155565314616</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1071.135055411604</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C32" t="n">
-        <v>661.0104647248737</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D32" t="n">
-        <v>661.0104647248737</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E32" t="n">
-        <v>661.0104647248737</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F32" t="n">
-        <v>239.9800526785613</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
-        <v>239.9800526785613</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N32" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O32" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q32" t="n">
         <v>2088.254281480102</v>
@@ -6731,19 +6733,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X32" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y32" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N33" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O33" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P33" t="n">
-        <v>2048.100145893876</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1025.613750745284</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1299.499495805762</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U34" t="n">
-        <v>1299.499495805762</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V34" t="n">
-        <v>1025.613750745284</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W34" t="n">
-        <v>1025.613750745284</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X34" t="n">
-        <v>1025.613750745284</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y34" t="n">
-        <v>1025.613750745284</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.4530309326553</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C35" t="n">
-        <v>466.3284402459254</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D35" t="n">
-        <v>466.3284402459254</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E35" t="n">
-        <v>466.3284402459254</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F35" t="n">
-        <v>466.3284402459254</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L35" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
         <v>1530.854701124212</v>
       </c>
       <c r="N35" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O35" t="n">
         <v>2047.697635790537</v>
@@ -6962,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.610883649055</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.674210597145</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960205</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N36" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O36" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7047,19 +7049,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U36" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1313.147113382886</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.598374359588</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.254281480102</v>
+        <v>790.8002269057126</v>
       </c>
       <c r="V37" t="n">
-        <v>2088.254281480102</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="W37" t="n">
-        <v>2088.254281480102</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>516.9144818452346</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1287.260303845748</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C38" t="n">
-        <v>877.1357131590178</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D38" t="n">
-        <v>877.1357131590178</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>462.7954976759145</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y38" t="n">
-        <v>1697.481483510237</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M39" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N39" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O39" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>589.7444594756917</v>
+        <v>871.2346686556129</v>
       </c>
       <c r="C40" t="n">
-        <v>589.7444594756917</v>
+        <v>871.2346686556129</v>
       </c>
       <c r="D40" t="n">
-        <v>589.7444594756917</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E40" t="n">
-        <v>589.7444594756917</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F40" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H40" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7357,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>1101.974066676486</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V40" t="n">
-        <v>828.0883216160082</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W40" t="n">
-        <v>828.0883216160082</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X40" t="n">
-        <v>589.7444594756917</v>
+        <v>1058.934375049657</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.7444594756917</v>
+        <v>1058.934375049657</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1481.356235076093</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C41" t="n">
-        <v>1071.231644389363</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D41" t="n">
-        <v>877.1357131590178</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E41" t="n">
-        <v>462.7954976759145</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L41" t="n">
-        <v>1014.011766457887</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.011766457887</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="N41" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O41" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7448,13 +7450,13 @@
         <v>1481.356235076093</v>
       </c>
       <c r="W41" t="n">
-        <v>1481.356235076093</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="X41" t="n">
-        <v>1481.356235076093</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="Y41" t="n">
-        <v>1481.356235076093</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
         <v>240.2510026593071</v>
@@ -7482,31 +7484,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>537.7254774811266</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N42" t="n">
-        <v>1054.568412147452</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C43" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D43" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E43" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F43" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7597,22 +7599,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U43" t="n">
-        <v>1288.365834796576</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.365834796576</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W43" t="n">
-        <v>1288.365834796576</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X43" t="n">
-        <v>1288.365834796576</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y43" t="n">
-        <v>1288.365834796576</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C44" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D44" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E44" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F44" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L44" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M44" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N44" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="O44" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1939.742126239972</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U44" t="n">
-        <v>1682.681634499482</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V44" t="n">
-        <v>1682.681634499482</v>
+        <v>1603.135651610683</v>
       </c>
       <c r="W44" t="n">
-        <v>1682.681634499482</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X44" t="n">
-        <v>1682.681634499482</v>
+        <v>818.7319529148044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1281.744961447572</v>
+        <v>417.7952798628945</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L45" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.568412147452</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N45" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O45" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q45" t="n">
         <v>2088.254281480102</v>
@@ -7761,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.3847151048558</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C46" t="n">
-        <v>749.2913426665723</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D46" t="n">
-        <v>589.7966979894823</v>
+        <v>98.02317940426792</v>
       </c>
       <c r="E46" t="n">
-        <v>428.8858828578017</v>
+        <v>98.02317940426792</v>
       </c>
       <c r="F46" t="n">
-        <v>264.254756968393</v>
+        <v>98.02317940426792</v>
       </c>
       <c r="G46" t="n">
-        <v>97.00436589393641</v>
+        <v>98.02317940426792</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>98.02317940426792</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7834,22 +7836,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.820120110135</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>1108.0844214989</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>494.099071146226</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8058,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>564.2543476875383</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>528.088347203076</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8298,19 +8300,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>392.2643757374379</v>
+        <v>392.2643757374374</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8453,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L8" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793174</v>
       </c>
       <c r="P9" t="n">
-        <v>525.3716274158285</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8772,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>554.1634861730677</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>528.8634714130245</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>333.3534809699548</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>229.2480899138815</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>528.8634714130245</v>
       </c>
       <c r="P15" t="n">
-        <v>560.9496989519245</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9164,16 +9166,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L17" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>96.67425672622875</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>329.5449236222966</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
         <v>617.5489684328704</v>
@@ -9410,10 +9412,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9422,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>70.59911775623679</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9641,10 +9643,10 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M23" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
         <v>614.9758611266449</v>
@@ -9653,7 +9655,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9723,19 +9725,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>425.427124839344</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9875,28 +9877,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>593.8823835359368</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P26" t="n">
-        <v>229.2480899138817</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M27" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537828</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10133,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>98.31121191537974</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>392.2643757374374</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>337.4068669225205</v>
       </c>
       <c r="P32" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>87.31214281472352</v>
@@ -10425,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10440,16 +10442,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
-        <v>67.39425105392553</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L35" t="n">
-        <v>298.736180582244</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>296.5410069764445</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
@@ -10844,7 +10846,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>263.5046911326701</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>298.736180582244</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>228.8889510900428</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>558.5343765177352</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11297,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>494.099071146226</v>
+        <v>535.0653799235641</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>403.3498937858816</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>291.9788273966968</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D4" t="n">
-        <v>4.874559219806315</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -22759,7 +22761,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22787,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>13.55422061770372</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>381.1029219370723</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60.49569797502609</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -23005,7 +23007,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>396.2678730121402</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,10 +23080,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>309.7264826580405</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>159.0234119134985</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23312,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>360.0242673938933</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23507,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>106.5688022913598</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>272.2658180990146</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>102.2044137447352</v>
       </c>
     </row>
     <row r="18">
@@ -23890,19 +23892,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>74.64703327850197</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23941,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23971,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>212.7595748957584</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>244.4941686627857</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23981,7 +23983,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24208,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>329.186980204331</v>
       </c>
       <c r="D23" t="n">
-        <v>12.0762540159551</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24272,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>28.32143187817169</v>
       </c>
       <c r="G25" t="n">
-        <v>153.7116212335747</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>107.0739199224663</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>173.0974811016262</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24610,16 +24612,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>136.4118465705644</v>
       </c>
       <c r="G28" t="n">
-        <v>39.88629071360087</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>305.9441559029073</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -24695,7 +24697,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>102.7392822516763</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.93136425866004</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>57.06664624006518</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24904,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>197.0548400761871</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,10 +24973,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25075,25 +25077,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>104.4303333336003</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25166,10 +25168,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>292.1226925944951</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>102.2044137447352</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>13.51114140135334</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176236</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>13.07651982190356</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.06223633122448</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>87.88318588847373</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>49.35708776591298</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>208.264318689828</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>56.09114247684431</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.12847945292489</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>33.84907557688501</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25874,10 +25876,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>72.95738552488049</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>93.42449318090689</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>59.48707259979788</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561839.7390593849</v>
+        <v>561839.7390593848</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561839.739059385</v>
+        <v>561839.7390593849</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561839.739059385</v>
+        <v>561839.7390593849</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>561839.7390593851</v>
+        <v>561839.7390593849</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561839.739059385</v>
+        <v>561839.7390593851</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561839.7390593851</v>
+        <v>561839.7390593849</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>561839.7390593851</v>
+        <v>561839.7390593849</v>
       </c>
     </row>
     <row r="16">
@@ -26320,19 +26322,19 @@
         <v>142694.2606395789</v>
       </c>
       <c r="E2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="F2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="H2" t="n">
         <v>142694.2606395788</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>142694.2606395788</v>
-      </c>
-      <c r="G2" t="n">
-        <v>142694.2606395788</v>
-      </c>
-      <c r="H2" t="n">
-        <v>142694.2606395789</v>
-      </c>
-      <c r="I2" t="n">
-        <v>142694.2606395789</v>
       </c>
       <c r="J2" t="n">
         <v>142694.2606395789</v>
@@ -26350,7 +26352,7 @@
         <v>142694.2606395789</v>
       </c>
       <c r="O2" t="n">
-        <v>142694.2606395788</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="P2" t="n">
         <v>142694.2606395789</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="D4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="F4" t="n">
         <v>39061.35498003941</v>
@@ -26442,7 +26444,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="K4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="L4" t="n">
         <v>39061.35498003941</v>
@@ -26454,7 +26456,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="O4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="P4" t="n">
         <v>39061.35498003941</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26522,46 +26524,46 @@
         <v>-136691.6693120722</v>
       </c>
       <c r="C6" t="n">
-        <v>38263.84058104193</v>
+        <v>38263.84058104191</v>
       </c>
       <c r="D6" t="n">
-        <v>38263.8405810419</v>
+        <v>38263.84058104191</v>
       </c>
       <c r="E6" t="n">
+        <v>71891.44058104197</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71891.44058104191</v>
+      </c>
+      <c r="G6" t="n">
+        <v>71891.44058104197</v>
+      </c>
+      <c r="H6" t="n">
+        <v>71891.44058104184</v>
+      </c>
+      <c r="I6" t="n">
         <v>71891.44058104187</v>
       </c>
-      <c r="F6" t="n">
-        <v>71891.44058104187</v>
-      </c>
-      <c r="G6" t="n">
-        <v>71891.44058104184</v>
-      </c>
-      <c r="H6" t="n">
-        <v>71891.44058104193</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71891.4405810419</v>
-      </c>
       <c r="J6" t="n">
-        <v>-64703.36022485308</v>
+        <v>-64703.36022485298</v>
       </c>
       <c r="K6" t="n">
-        <v>71891.4405810419</v>
+        <v>71891.44058104194</v>
       </c>
       <c r="L6" t="n">
-        <v>71891.4405810419</v>
+        <v>71891.44058104191</v>
       </c>
       <c r="M6" t="n">
-        <v>71891.44058104187</v>
+        <v>71891.44058104188</v>
       </c>
       <c r="N6" t="n">
-        <v>71891.44058104193</v>
+        <v>71891.44058104194</v>
       </c>
       <c r="O6" t="n">
-        <v>71891.44058104187</v>
+        <v>71891.44058104194</v>
       </c>
       <c r="P6" t="n">
-        <v>71891.4405810419</v>
+        <v>71891.44058104191</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
         <v>522.0635703700256</v>
@@ -26811,25 +26813,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34778,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>474.894953809326</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>338.0047407346341</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L8" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P9" t="n">
-        <v>471.1119924130247</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="P15" t="n">
-        <v>506.6900639491207</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35884,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L17" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>40.55973291537969</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
         <v>522.0635703700256</v>
@@ -36130,10 +36132,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P21" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,10 +36363,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M23" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
         <v>522.0635703700256</v>
@@ -36373,7 +36375,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>367.8628411009266</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P26" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M27" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>40.55973291537975</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="P32" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.70163254908682</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L35" t="n">
-        <v>203.2507825193992</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>500.9700927793178</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>400.9092955204429</v>
+        <v>441.875604297781</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274518.3610118068</v>
+        <v>268788.9651805797</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763805</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6496621.969396499</v>
+        <v>6496621.9693965</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.47021413996765</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>374.0617719138702</v>
       </c>
     </row>
     <row r="3">
@@ -800,13 +800,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810342</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>42.43741174507633</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>87.46300087352715</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.53807932902379</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>115.3984165423758</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385435</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1068,13 +1068,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>80.9221812286481</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>70.19621519814257</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>355.1584873819098</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1308,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>41.58625087708843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>388.2474135039324</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>104.1439167434482</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1463,7 +1463,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588044</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
         <v>70.03974083464111</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>46.92854525183973</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1593,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>40.39502321397676</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>130.7105412699035</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1706,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.57296805995022</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>21.05575184683111</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.7228925766556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>85.79877364886877</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>83.25266495181711</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2016,7 +2016,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>155.9251219450843</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>51.24388571109842</v>
       </c>
     </row>
     <row r="21">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>125.193869236058</v>
       </c>
       <c r="C23" t="n">
-        <v>76.83636457553152</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2374,19 +2374,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.663382752343</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>249.8214450936306</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>81.39240572145881</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>26.57296805995025</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>100.0791888769552</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>114.0354153016803</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>91.04473440253273</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>65.48383042464037</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>25.02709085032502</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>294.7228925766556</v>
+        <v>132.3926714738918</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.4125609588489</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>171.0167090375355</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>10.47299395090344</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>383.5604440308334</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>70.01651234184534</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>195.6344337210733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>340.8361638445465</v>
+        <v>303.9387537748806</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>37.85350650057755</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>372.2698922909595</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>378.1938974852948</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.69551283691923</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.096428763702</v>
+        <v>942.7053689061983</v>
       </c>
       <c r="C2" t="n">
-        <v>866.9718380769724</v>
+        <v>532.5807782194684</v>
       </c>
       <c r="D2" t="n">
-        <v>866.9718380769724</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E2" t="n">
-        <v>452.6316225938691</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F2" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1352.926548570688</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585604</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4442,13 +4442,13 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.63115809937611</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960203</v>
+        <v>888.8573843441804</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960203</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960203</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960203</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960203</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>1014.480089736098</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W4" t="n">
-        <v>735.4104252449724</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X4" t="n">
-        <v>497.0665631046558</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.3308644934205</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.389703984565</v>
+        <v>946.9209937025716</v>
       </c>
       <c r="C5" t="n">
-        <v>867.265113297835</v>
+        <v>946.9209937025716</v>
       </c>
       <c r="D5" t="n">
-        <v>462.8011833908955</v>
+        <v>542.4570637956322</v>
       </c>
       <c r="E5" t="n">
-        <v>462.8011833908955</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F5" t="n">
-        <v>462.8011833908955</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959272</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1357.142173367061</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.610883649054</v>
+        <v>1357.142173367061</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.610883649054</v>
+        <v>1357.142173367061</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
         <v>349.2108824768026</v>
@@ -4640,10 +4640,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4658,13 +4658,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1724.070068790184</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4679,19 +4679,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>688.0078542835181</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>688.0078542835181</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>688.0078542835181</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>856.3536062232714</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960203</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960203</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811263</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147451</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816582</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W8" t="n">
-        <v>1667.511458939671</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X8" t="n">
-        <v>1667.511458939671</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1266.574785887761</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N9" t="n">
-        <v>1592.293889628578</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1342.765900113101</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.967752659225</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>786.0820075987471</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>786.0820075987471</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>786.0820075987471</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>561.3463089875117</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.033101815612</v>
+        <v>959.2718510455712</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5071,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.851921928529</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.851921928529</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.851921928529</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1360.208524097481</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>959.2718510455712</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959272</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.450954962252</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N12" t="n">
-        <v>1592.293889628578</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5153,19 +5153,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960203</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960203</v>
+        <v>564.3170528066889</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960203</v>
+        <v>564.3170528066889</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960203</v>
+        <v>403.4062376750084</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960203</v>
+        <v>238.7751117855997</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960203</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960203</v>
+        <v>735.4104252449724</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>492.6927300678236</v>
+        <v>1303.557307563361</v>
       </c>
       <c r="C14" t="n">
-        <v>82.56813938109372</v>
+        <v>893.4327168766312</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960203</v>
+        <v>893.4327168766312</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960203</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960203</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N14" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O14" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
         <v>1726.536628995245</v>
@@ -5317,13 +5317,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1704.49398061527</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X14" t="n">
-        <v>1303.850582784223</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y14" t="n">
-        <v>902.9139097323131</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962252</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N15" t="n">
-        <v>1592.293889628578</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O15" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5390,19 +5390,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>406.9502310210797</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>235.8568585827962</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>235.8568585827962</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>235.8568585827962</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>594.6499374151241</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.76508562960203</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960203</v>
+        <v>1285.788123846983</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960203</v>
+        <v>881.3241939400436</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960203</v>
+        <v>881.3241939400436</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>460.2937818937312</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N17" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5545,22 +5545,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>1730.766722221061</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U17" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.868675817052</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W17" t="n">
-        <v>740.1083749522209</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X17" t="n">
-        <v>339.4649771211734</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.76508562960203</v>
+        <v>1695.912714533713</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>751.4208778585604</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.263812524885</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1541.851827451147</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7443911248628</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C19" t="n">
-        <v>618.6510186865793</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D19" t="n">
-        <v>534.5574177251478</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6466025934674</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F19" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5709,16 +5709,16 @@
         <v>1288.365834796576</v>
       </c>
       <c r="V19" t="n">
-        <v>1014.480089736098</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W19" t="n">
-        <v>1014.480089736098</v>
+        <v>1009.29617030545</v>
       </c>
       <c r="X19" t="n">
-        <v>1014.480089736098</v>
+        <v>1009.29617030545</v>
       </c>
       <c r="Y19" t="n">
-        <v>789.7443911248628</v>
+        <v>784.5604716942152</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>596.5254688616637</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="C20" t="n">
-        <v>596.5254688616637</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="D20" t="n">
-        <v>439.0253456848109</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="E20" t="n">
-        <v>439.0253456848109</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F20" t="n">
-        <v>439.0253456848109</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G20" t="n">
         <v>439.0253456848109</v>
@@ -5752,19 +5752,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L20" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M20" t="n">
-        <v>1846.479361096332</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N20" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
         <v>2088.254281480102</v>
@@ -5788,16 +5788,16 @@
         <v>1730.766722221062</v>
       </c>
       <c r="V20" t="n">
-        <v>1380.929167557543</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W20" t="n">
-        <v>997.1688666927112</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X20" t="n">
-        <v>596.5254688616637</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y20" t="n">
-        <v>596.5254688616637</v>
+        <v>1679.005221502781</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>704.7239474634679</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>704.7239474634679</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O21" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1329.830049169152</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="C23" t="n">
-        <v>1252.217559698918</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D23" t="n">
-        <v>847.7536297919787</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E23" t="n">
-        <v>847.7536297919787</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F23" t="n">
-        <v>847.7536297919787</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G23" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H23" t="n">
         <v>128.1168483125289</v>
@@ -5989,25 +5989,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N23" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.697635790537</v>
@@ -6022,19 +6022,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W23" t="n">
-        <v>1730.766722221062</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X23" t="n">
-        <v>1730.766722221062</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y23" t="n">
-        <v>1329.830049169152</v>
+        <v>1089.945929615741</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O24" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1299.17626840397</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>1128.082895965686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>1128.082895965686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>1128.082895965686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1816.589795035412</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.589795035412</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V25" t="n">
-        <v>1816.589795035412</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W25" t="n">
-        <v>1537.520130544286</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X25" t="n">
-        <v>1299.17626840397</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y25" t="n">
-        <v>1299.17626840397</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1373.612066528674</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C26" t="n">
-        <v>963.4874758419446</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D26" t="n">
-        <v>963.4874758419446</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E26" t="n">
-        <v>549.1472603588413</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F26" t="n">
-        <v>128.1168483125289</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M26" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N26" t="n">
-        <v>1054.568412147451</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O26" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
         <v>2088.254281480102</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
-        <v>1783.833246193164</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1783.833246193164</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W26" t="n">
-        <v>1783.833246193164</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X26" t="n">
-        <v>1783.833246193164</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y26" t="n">
-        <v>1783.833246193164</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
@@ -6311,19 +6311,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N27" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O27" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>406.9502310210797</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>235.8568585827962</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>235.8568585827962</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>235.8568585827962</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6417,19 +6417,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1331.615243227154</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1057.729498166676</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1057.729498166676</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>819.3856360263594</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.6499374151241</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.8551754043043</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="C29" t="n">
-        <v>41.76508562960203</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="D29" t="n">
-        <v>41.76508562960203</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="E29" t="n">
-        <v>41.76508562960203</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L29" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M29" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.416726816582</v>
+        <v>1358.518942297057</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.656425951751</v>
+        <v>1358.518942297057</v>
       </c>
       <c r="X29" t="n">
-        <v>954.0130281207037</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="Y29" t="n">
-        <v>553.0763550687938</v>
+        <v>957.8755444660092</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
@@ -6548,19 +6548,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M30" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N30" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O30" t="n">
-        <v>1724.070068790184</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P30" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q30" t="n">
         <v>2058.694762117472</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1073.455858920572</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C31" t="n">
-        <v>902.3624864822882</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D31" t="n">
-        <v>742.8678418051982</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E31" t="n">
-        <v>581.9570266735177</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F31" t="n">
-        <v>417.325900784109</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G31" t="n">
-        <v>250.0755097096524</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6645,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1485.891263925851</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1261.155565314616</v>
+        <v>191.3725408241454</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1695.988587952916</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="C32" t="n">
-        <v>1285.863997266186</v>
+        <v>1355.649277809739</v>
       </c>
       <c r="D32" t="n">
-        <v>1285.863997266186</v>
+        <v>951.1853479028</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
@@ -6706,46 +6706,46 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N32" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O32" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P32" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
@@ -6794,10 +6794,10 @@
         <v>1207.227134123859</v>
       </c>
       <c r="O33" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6888,22 +6888,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1340.598203386633</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1057.800055932758</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>783.9143108722797</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>504.844646381154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>266.5007842408373</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>1329.636426430007</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M35" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N35" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6967,22 +6967,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V35" t="n">
-        <v>1123.868675817052</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W35" t="n">
-        <v>740.1083749522209</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X35" t="n">
-        <v>339.4649771211734</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
@@ -7022,19 +7022,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M36" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N36" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q36" t="n">
         <v>2058.694762117472</v>
@@ -7049,19 +7049,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U36" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>516.9144818452346</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="C37" t="n">
-        <v>516.9144818452346</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="D37" t="n">
-        <v>516.9144818452346</v>
+        <v>578.1370391836704</v>
       </c>
       <c r="E37" t="n">
-        <v>356.0036667135541</v>
+        <v>417.2262240519898</v>
       </c>
       <c r="F37" t="n">
-        <v>191.3725408241454</v>
+        <v>417.2262240519898</v>
       </c>
       <c r="G37" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7122,25 +7122,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1313.147113382886</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T37" t="n">
-        <v>1073.598374359588</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U37" t="n">
-        <v>790.8002269057126</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V37" t="n">
-        <v>516.9144818452346</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="W37" t="n">
-        <v>516.9144818452346</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="X37" t="n">
-        <v>516.9144818452346</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.9144818452346</v>
+        <v>737.6316838607604</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.673583001884</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="C38" t="n">
-        <v>352.673583001884</v>
+        <v>1193.011060923954</v>
       </c>
       <c r="D38" t="n">
-        <v>352.673583001884</v>
+        <v>1193.011060923954</v>
       </c>
       <c r="E38" t="n">
-        <v>352.673583001884</v>
+        <v>1193.011060923954</v>
       </c>
       <c r="F38" t="n">
-        <v>352.673583001884</v>
+        <v>771.9806488776412</v>
       </c>
       <c r="G38" t="n">
-        <v>352.673583001884</v>
+        <v>363.2523647704734</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>52.34386739819138</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M38" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N38" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221061</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U38" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817052</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W38" t="n">
-        <v>740.1083749522209</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X38" t="n">
-        <v>352.673583001884</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y38" t="n">
-        <v>352.673583001884</v>
+        <v>1603.135651610684</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
@@ -7259,19 +7259,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M39" t="n">
-        <v>1571.411346813777</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N39" t="n">
-        <v>1571.411346813777</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>871.2346686556129</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C40" t="n">
-        <v>871.2346686556129</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7359,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U40" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V40" t="n">
-        <v>1297.278237189974</v>
+        <v>904.363527564291</v>
       </c>
       <c r="W40" t="n">
-        <v>1297.278237189974</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="X40" t="n">
-        <v>1058.934375049657</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y40" t="n">
-        <v>1058.934375049657</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.673583001884</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C41" t="n">
-        <v>352.673583001884</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D41" t="n">
-        <v>352.673583001884</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E41" t="n">
-        <v>352.673583001884</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F41" t="n">
         <v>352.673583001884</v>
@@ -7405,34 +7405,34 @@
         <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>176.0078249962694</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N41" t="n">
-        <v>692.8507596625946</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7450,13 +7450,13 @@
         <v>1481.356235076093</v>
       </c>
       <c r="W41" t="n">
-        <v>1097.595934211261</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X41" t="n">
-        <v>696.9525363802138</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="Y41" t="n">
-        <v>352.673583001884</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
@@ -7499,16 +7499,16 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.76508562960203</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C43" t="n">
-        <v>41.76508562960203</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7593,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T43" t="n">
-        <v>1340.598203386633</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U43" t="n">
-        <v>1057.800055932758</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V43" t="n">
-        <v>783.9143108722797</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W43" t="n">
-        <v>504.844646381154</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X43" t="n">
-        <v>266.5007842408373</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.76508562960203</v>
+        <v>410.5889678970741</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M44" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N44" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O44" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P44" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V44" t="n">
-        <v>1603.135651610683</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.375350745852</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="X44" t="n">
-        <v>818.7319529148044</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="Y44" t="n">
-        <v>417.7952798628945</v>
+        <v>877.1357131590178</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N45" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
         <v>1221.566882129793</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>98.02317940426792</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>98.02317940426792</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>98.02317940426792</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>98.02317940426792</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>98.02317940426792</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7851,7 +7851,7 @@
         <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>425.4271248393446</v>
       </c>
       <c r="N3" t="n">
-        <v>528.088347203076</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8218,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>555.489182064824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8306,16 +8306,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>392.2643757374374</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>590.1064824525346</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8476,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>558.7215717793174</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>553.1935596277623</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>528.8634714130245</v>
+        <v>502.7883324430334</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>229.2480899138815</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9011,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O15" t="n">
-        <v>528.8634714130245</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>549.1401736751963</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>329.5449236222966</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>422.1224761037308</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N20" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9485,25 +9485,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>70.59911775623679</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428702</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9722,10 +9722,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M24" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N26" t="n">
-        <v>593.8823835359368</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>87.31214281472352</v>
@@ -9959,7 +9959,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>562.8045877599694</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9968,10 +9968,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>337.5073157537828</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,13 +10205,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>392.2643757374374</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10354,25 +10354,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>337.4068669225205</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,13 +10442,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>425.6143201009266</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10588,25 +10588,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>296.5410069764445</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10670,7 +10670,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>562.8045877599694</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10682,7 +10682,7 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10825,28 +10825,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>594.2603172363629</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,22 +10907,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>423.9773649117757</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>228.8889510900428</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,19 +11144,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>72.04887768380517</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
@@ -11308,19 +11308,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>535.0653799235641</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509096</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8093398682832</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22552,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>403.3498937858816</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22615,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>22.86553440752056</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>126.9450269688243</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>70.43669735679192</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1029219370723</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>264.5242813138073</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>155.0382422902653</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23074,7 +23074,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>309.7264826580405</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>41.47847647082722</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23181,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>195.5670007559765</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>17.77593127593013</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>150.3459700796368</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>118.6493419118723</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130049</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>360.0242673938933</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>279.4862720583687</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23664,10 +23664,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>136.4118465705644</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>383.585249419265</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>102.2044137447352</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>100.0239356812352</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>74.64703327850197</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>244.4941686627857</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>345.6834206102924</v>
       </c>
     </row>
     <row r="21">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>280.9250986317865</v>
       </c>
       <c r="C23" t="n">
-        <v>329.186980204331</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>28.32143187817169</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>160.3753682346416</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>173.0974811016262</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,10 +24612,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>136.4118465705644</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>305.9441559029073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24691,16 +24691,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>232.3037638152039</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>57.06664624006518</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>157.0045112004826</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.7759312759303</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>380.9962539295375</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25128,7 +25128,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>102.2044137447352</v>
+        <v>264.534634847499</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>57.16532620486313</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>13.51114140135334</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25393,7 +25393,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,16 +25402,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>75.01525110519412</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>13.07651982190356</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>87.88318588847373</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>75.51245388879994</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>56.09114247684431</v>
+        <v>92.98855254651016</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>147.9692028295264</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.84907557688501</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25873,10 +25873,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.728800370888337</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>59.48707259979788</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561839.7390593848</v>
+        <v>561839.7390593849</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561839.7390593849</v>
+        <v>561839.7390593848</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561839.7390593851</v>
+        <v>561839.7390593849</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>561839.7390593849</v>
+        <v>561839.739059385</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="C2" t="n">
         <v>142694.2606395788</v>
-      </c>
-      <c r="C2" t="n">
-        <v>142694.2606395789</v>
       </c>
       <c r="D2" t="n">
         <v>142694.2606395789</v>
@@ -26325,10 +26325,10 @@
         <v>142694.2606395789</v>
       </c>
       <c r="F2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="G2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="H2" t="n">
         <v>142694.2606395788</v>
@@ -26337,25 +26337,25 @@
         <v>142694.2606395788</v>
       </c>
       <c r="J2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="K2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="L2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="M2" t="n">
         <v>142694.2606395788</v>
       </c>
       <c r="N2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="O2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="P2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="D4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="F4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="G4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="H4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="I4" t="n">
         <v>39061.35498003941</v>
@@ -26444,7 +26444,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="K4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="L4" t="n">
         <v>39061.35498003941</v>
@@ -26453,10 +26453,10 @@
         <v>39061.35498003941</v>
       </c>
       <c r="N4" t="n">
+        <v>39061.35498003942</v>
+      </c>
+      <c r="O4" t="n">
         <v>39061.35498003941</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39061.3549800394</v>
       </c>
       <c r="P4" t="n">
         <v>39061.35498003941</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136691.6693120722</v>
+        <v>-137369.1981714662</v>
       </c>
       <c r="C6" t="n">
-        <v>38263.84058104191</v>
+        <v>37586.31172164783</v>
       </c>
       <c r="D6" t="n">
-        <v>38263.84058104191</v>
+        <v>37586.31172164786</v>
       </c>
       <c r="E6" t="n">
-        <v>71891.44058104197</v>
+        <v>71213.91172164785</v>
       </c>
       <c r="F6" t="n">
-        <v>71891.44058104191</v>
+        <v>71213.91172164782</v>
       </c>
       <c r="G6" t="n">
-        <v>71891.44058104197</v>
+        <v>71213.91172164782</v>
       </c>
       <c r="H6" t="n">
-        <v>71891.44058104184</v>
+        <v>71213.91172164782</v>
       </c>
       <c r="I6" t="n">
-        <v>71891.44058104187</v>
+        <v>71213.91172164782</v>
       </c>
       <c r="J6" t="n">
-        <v>-64703.36022485298</v>
+        <v>-65380.88908424715</v>
       </c>
       <c r="K6" t="n">
-        <v>71891.44058104194</v>
+        <v>71213.91172164782</v>
       </c>
       <c r="L6" t="n">
-        <v>71891.44058104191</v>
+        <v>71213.91172164782</v>
       </c>
       <c r="M6" t="n">
-        <v>71891.44058104188</v>
+        <v>71213.91172164779</v>
       </c>
       <c r="N6" t="n">
-        <v>71891.44058104194</v>
+        <v>71213.91172164779</v>
       </c>
       <c r="O6" t="n">
-        <v>71891.44058104194</v>
+        <v>71213.91172164782</v>
       </c>
       <c r="P6" t="n">
-        <v>71891.44058104191</v>
+        <v>71213.91172164779</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
         <v>522.0635703700256</v>
@@ -26813,25 +26813,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700253</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="N3" t="n">
-        <v>474.894953809326</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35026,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
-        <v>338.0047407346337</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>460.0037840019792</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>471.1119924130245</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O15" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="N20" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N20" t="n">
-        <v>244.2170912967376</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N23" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O23" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36442,10 +36442,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M24" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N26" t="n">
-        <v>500.9700927793174</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>506.6900639491204</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>244.2170912967374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>338.0047407346337</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -37074,25 +37074,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>244.2170912967374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>367.8628411009266</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>203.2507825193991</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37390,7 +37390,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>506.6900639491204</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37545,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38028,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>441.875604297781</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
